--- a/paskaitu_planas.xlsx
+++ b/paskaitu_planas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justa\Desktop\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65AD412-30CD-4DB0-9026-46805A17D99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA868279-2CF5-4BF3-B22A-93E3F26A421C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{556AEED3-70B9-4895-BF26-11AC98C8A2A4}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
